--- a/DOM_Banner/output/dept0713/Tara F Carr_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Tara F Carr_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3217468016</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Precision Interventions for Severe and/or Exacerbation-Prone (PrecISE) Asthma Network: An overview of Network organization, procedures, and interventions</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2021.10.035</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34848210</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2021.10.035</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz.; University of Bristol, Avon, United Kingdom; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; University of Bristol, Avon, United Kingdom; Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3206478864</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>High Insulin in Early Childhood Is Associated with Subsequent Asthma Risk Independent of Body Mass Index</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2021.09.047</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34656798</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2021.09.047</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, Department of Medicine, University of Arizona, Tucson, Ariz; Asthma and Airway Disease Research Center, Department of Medicine, University of Arizona, Tucson, Ariz</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4200351263</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Asthma and atopy in COVID-19: 2021 updates</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2021.12.762</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34942236</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2021.12.762</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine University of Arizona Tucson, Arizona.; Department of Medicine University of Arizona Tucson, Arizona.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225939484</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Gaining Insights into Asthma-related COVID-19 Risk</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202111-2473ed</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34813725</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202111-2473ed</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; University of Cincinnati, Bernstein Clinical Research Center, Cincinnati, OH, USA; Respiratory and Immunology, BioPharmaceuticals Medical, AstraZeneca, Gaithersburg, MD, USA; Respiratory and Immunology, BioPharmaceuticals R&amp;D, AstraZeneca, Cambridge, UK; Respiratory and Immunology, BioPharmaceuticals Medical, AstraZeneca, Gaithersburg, MD, USA; Global Medical Affairs, Amgen, Thousand Oaks, CA, USA; US Medical Affairs, Amgen, Thousand Oaks, CA, USA; Respiratory &amp; Immunology, BioPharmaceuticals R&amp;D, AstraZeneca, Gaithersburg, MD, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220962349</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Efficacy of Tezepelumab in Patients with Severe, Uncontrolled Asthma with Respiratory Comorbidities: Results from the Phase 3 NAVIGATOR Study</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2021.12.510</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaci.2021.12.510</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of North Carolina at Chapel Hill Gillings School of Global Public Health, Department of Maternal and Child Health, Chapel Hill, North Carolina 27599-7400, USA; University of North Carolina at Chapel Hill Gillings School of Global Public Health, Department of Nutrition, Chapel Hill, North Carolina, USA; University of North Carolina at Chapel Hill Gillings School of Global Public Health, Department of Health Policy and Management, Chapel Hill, North Carolina, USA; Cincinnati Children’s Hospital Medical Center, 3333 Burnet Avenue, Cincinnati, OH 45229, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224279518</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>A Scoping Review of the Use of Quality Improvement Methods by Community Organizations in the United States, Australia, New Zealand, and Canada to Improve Health and Well Being in Community Settings</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>IJQHC communications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ijcoms/lyab019</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ijcoms/lyab019</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Division of Pulmonary Diseases and Critical Care Medicine and North Carolina Thoracic Society, University of North Carolina at Chapel Hill, Marsico Hall, Room 7202, 125 Mason Farm Rd, Chapel Hill, NC, 27599, USA. pleas005@email.unc.edu.; Arnold School of Public Health, University of South Carolina, Columbia, USA; Pulmonary, Critical Care, Allergy, Immunologic Diseases, Wake Forest University, Winston-Salem, USA; UNC at Chapel Hill Division of Pulmonary Diseases and Critical Care Medicine, Chapel Hill, USA; Division of Pulmonary and Critical Care Medicine, University of Michigan, Ann Arbor, USA; Kentucky Department for Public Health, Frankford, USA; Department of Internal Medicine, University of Arizona, Tucson, USA; Department of Medicine, University of Kentucky, Lexington, USA; Division of Pulmonary, Critical Care and Sleep Medicine, Medical University of South Carolina, Charleston, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4284887824</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Respiratory Symptoms among US Adults: a Cross-Sectional Health Survey Study</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-07-06</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Pulmonary Therapy</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Adis, Springer Healthcare</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s41030-022-00194-9</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35794458</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s41030-022-00194-9</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,39 +1061,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Allergy, and Critical Care Medicine, Lung Health Center, University of Alabama at Birmingham, Birmingham, AL, États-Unis; Division of Pulmonary, Allergy, and Critical Care Medicine, Lung Health Center, University of Alabama at Birmingham, Birmingham, AL, États-Unis; Department of Medicine and Asthma and Airway Disease Research Center, University of Arizona College of Medicine, Tucson, AZ, États-Unis; Lewis Katz School of Medicine at Temple University, Philadelphia, PA, États-Unis; University of Exeter Medical School, University of Exeter, Exeter, Royaume-Uni; University of Michigan, Pulmonary &amp; Critical Care, Ann Arbor, MI, États-Unis; GSK, Research Triangle Park, NC, États-Unis; Minnesota Lung Center, Minneapolis, MN, États-Unis; Department of Medicine and Asthma and Airway Disease Research Center, University of Arizona College of Medicine, Tucson, AZ, États-Unis; GlaxoSmithKline, Rueil Malmaison, France; GSK Collegeville and Perelman School of Medicine, University of Pennsylvania, Philadelphia, PA, États-Unis; University of New Mexico, College of Pharmacy, Albuquerque, NM, États-Unis; Jacobs School of Medicine and Biomedical Sciences, University at Buffalo, Buffalo, NY, États-Unis; HealthPartners Institute for Education and Research, Bloomington, MN, États-Unis; GSK, Brentford, Royaume-Uni; University of Manchester, Manchester University NHS Foundation Trust, Manchester, Royaume-Uni; Johns Hopkins University School of Medicine, Baltimore, MD, États-Unis; Division of Pulmonary, Allergy, and Critical Care Medicine, Lung Health Center, University of Alabama at Birmingham, Birmingham, AL, États-Unis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4200619892</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Une analyse de l’étude IMPACT évaluant la triple thérapie en une seule prise avec Furoate de Fluticasone/Umeclidinium/Vilanterol (FF/UMEC/VI) versus FF/VI et UMEC/VI en utilisant un critère composite d’événement indésirable chez des patients BPCO</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Revue des Maladies Respiratoires Actualités</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.rmra.2021.11.533</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.rmra.2021.11.533</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center (A2DRC), University of Arizona; Asthma and Airway Disease Research Center (A2DRC), University of Arizona, Tucson, USA; Asthma and Airway Disease Research Center (A2DRC), University of Arizona, Tucson, USA; Asthma and Airway Disease Research Center (A2DRC), University of Arizona, Tucson, USA; University of Arizona Genetics Core, University of Arizona, Tucson, USA; Asthma and Airway Disease Research Center (A2DRC), University of Arizona, Tucson, USA; Asthma and Airway Disease Research Center (A2DRC), University of Arizona, Tucson, USA; BIO5 Institute, University of Arizona, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213315929</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Evaluation of Swab-Seq as a scalable, sensitive assay for community surveillance of SARS-CoV-2 infection</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-02-23</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-06901-5</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35197492</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-06901-5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,24 +1235,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>NVPCCA, Annandale, VA, United States; AstraZeneca, Wilmington, DE, United States; Amgen, Thousand Oaks, CA, United States; Evidera, Bethesda, MD, United States; Evidera, London,  United Kingdom; Evidera, Bethesda, MD, United States; AstraZeneca, Wilmington, DE, United States; Amgen, Thousand Oaks, CA, United States; Amgen, Thousand Oaks, CA, United States; Evidera, Bethesda, MD, United States; Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225275726</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Patient Preferences for Biologic Treatments for Severe Asthma: Pilot Results from a Discrete Choice Experiment</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1210,14 +1260,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a1320</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a1320</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, Ariz; Division of Pulmonary and Critical Care Medicine, University of California, San Francisco, Calif</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226137688</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Novel potential treatable traits in asthma: Where is the research taking us?</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Journal of Allergy and Clinical Immunology: Global</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jacig.2022.04.001</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37780590</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jacig.2022.04.001</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,39 +1409,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Section of Allergy &amp; Immunology, Department of Medicine, Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona.; Section of Allergy &amp; Immunology, Department of Medicine, Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283073257</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Immunotherapy for Asthma</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-06-17</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Seminars in Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Thieme Medical Publishers (Germany)</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1055/s-0042-1749454</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1389,35 +1449,40 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35714626</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1055/s-0042-1749454</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,39 +1496,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Department of Medicine Larner College of Medicine, University of Vermont, Burlington, Vermont.; Department of Medicine Asthma and Airway Disease Research Center, University of Arizona, Tucson, Arizona.; Department of Medicine Duke University School of Medicine, Durham, North Carolina.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4284978165</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Advances in Asthma</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Seminars in Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Thieme Medical Publishers (Germany)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1055/s-0042-1753473</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35803267</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1055/s-0042-1753473</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,39 +1583,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312985289</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Antihistamines and Corticosteroids</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Springer eBooks</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/978-3-031-12867-7_27</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1553,35 +1623,40 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-12867-7_27</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>

--- a/DOM_Banner/output/dept0713/Tara F Carr_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Tara F Carr_2022.xlsx
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Steve N. Georas, Rosalind J. Wright, Anastasia Ivanova, Elliot Israel, Lisa M. LaVange, Praveen Akuthota, Tara F. Carr, Loren C. Denlinger, Merritt L. Fajt, Rajesh Kumar, Wanda K. O’Neal, Wanda Phipatanakul, Stanley J. Szefler, Mark A. Aronica, Leonard B. Bacharier, Allison J. Burbank, Mario Castro, Laura E. Crotty Alexander, Julie Bamdad, Juan Carlos Cardet, Suzy Comhair, Ronina Covar, Emily DiMango, Kim Erwin, Serpil C. Erzurum, John V. Fahy, Jonathan M. Gaffin, Benjamin Gaston, Lynn B. Gerald, Eric A. Hoffman, Fernando Holguin, Daniel J. Jackson, John James, Nizar N. Jarjour, Nicholas J. Kenyon, Sumita Khatri, John P. Kirwan, Monica Kraft, Jerry A. Krishnan, Andrew H. Liu, Mark C. Liu, Miriam Marquis, Fernando D. Martínez, Jacob T. Mey, Wendy C. Moore, James N. Moy, Victor E. Ortega, David B. Peden, Emily Pennington, Michael C. Peters, Kristie Ross, Maria Sanchez, Lewis J. Smith, Ronald L. Sorkness, Michael E. Wechsler, Sally E. Wenzel, Steven R. White, Joe Zein, Amir A. Zeki, Patricia Noël</t>
+          <t>Steve N. Georas, Rosalind J. Wright, Anastasia Ivanova, Elliot Israel, Lisa M. LaVange, Praveen Akuthota, Tara Carr, Loren C. Denlinger, Merritt L. Fajt, Rajesh Kumar, Wanda K. O’Neal, Wanda Phipatanakul, Stanley J. Szefler, Mark A. Aronica, Leonard B. Bacharier, Allison J. Burbank, Mario Castro, Laura E. Crotty Alexander, Julie Bamdad, Juan Carlos Cardet, Suzy Comhair, Ronina Covar, Emily DiMango, Kim Erwin, Serpil C. Erzurum, John V. Fahy, Jonathan M. Gaffin, Benjamin Gaston, Lynn B. Gerald, Eric A. Hoffman, Fernando Holguin, Daniel J. Jackson, John James, Nizar N. Jarjour, Nicholas J. Kenyon, Sumita Khatri, John P. Kirwan, Monica Kraft, Jerry A. Krishnan, Andrew H. Liu, Mark C. Liu, Miriam Marquis, Fernando D. Martínez, Jacob T. Mey, Wendy C. Moore, James N. Moy, Victor E. Ortega, David B. Peden, Emily Pennington, Michael C. Peters, Kristie Ross, Maria Sanchez, Lewis J. Smith, Ronald L. Sorkness, Michael E. Wechsler, Sally E. Wenzel, Steven R. White, Joe Zein, Amir A. Zeki, Patricia Noël</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Raquel Granell, Debra A. Stern, Stefano Guerra, Anne L. Wright, Marilyn Halonen, John Henderson, Fernando D. Martínez</t>
+          <t>Tara Carr, Raquel Granell, Debra A. Stern, Stefano Guerra, Anne L. Wright, Marilyn Halonen, John Henderson, Fernando D. Martínez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Monica Kraft</t>
+          <t>Tara Carr, Monica Kraft</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -708,22 +708,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Monica Kraft</t>
+          <t>Mallory Wolfe Turner, Tara Carr, John L. Randall, Rohit Ramaswamy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Department of Medicine University of Arizona Tucson, Arizona.; Department of Medicine University of Arizona Tucson, Arizona.</t>
+          <t>University of North Carolina at Chapel Hill Gillings School of Global Public Health, Department of Maternal and Child Health, Chapel Hill, North Carolina 27599-7400, USA; University of North Carolina at Chapel Hill Gillings School of Global Public Health, Department of Nutrition, Chapel Hill, North Carolina, USA; University of North Carolina at Chapel Hill Gillings School of Global Public Health, Department of Health Policy and Management, Chapel Hill, North Carolina, USA; Cincinnati Children’s Hospital Medical Center, 3333 Burnet Avenue, Cincinnati, OH 45229, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4225939484</t>
+          <t>https://openalex.org/W4224279518</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gaining Insights into Asthma-related COVID-19 Risk</t>
+          <t>A Scoping Review of the Use of Quality Improvement Methods by Community Organizations in the United States, Australia, New Zealand, and Canada to Improve Health and Well Being in Community Settings</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -733,22 +733,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>American Journal of Respiratory and Critical Care Medicine</t>
+          <t>IJQHC communications</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>American Thoracic Society</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202111-2473ed</t>
+          <t>https://doi.org/10.1093/ijcoms/lyab019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/34813725</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/rccm.202111-2473ed</t>
+          <t>https://doi.org/10.1093/ijcoms/lyab019</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,57 +795,57 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Jonathan A. Bernstein, Bill Cook, Gillian Hunter, Chris Ambrose, Jean-Pierre Llanos-Ackert, Andrew Lindsley, Gene Colice</t>
+          <t>Tara Carr, Monica Kraft</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; University of Cincinnati, Bernstein Clinical Research Center, Cincinnati, OH, USA; Respiratory and Immunology, BioPharmaceuticals Medical, AstraZeneca, Gaithersburg, MD, USA; Respiratory and Immunology, BioPharmaceuticals R&amp;D, AstraZeneca, Cambridge, UK; Respiratory and Immunology, BioPharmaceuticals Medical, AstraZeneca, Gaithersburg, MD, USA; Global Medical Affairs, Amgen, Thousand Oaks, CA, USA; US Medical Affairs, Amgen, Thousand Oaks, CA, USA; Respiratory &amp; Immunology, BioPharmaceuticals R&amp;D, AstraZeneca, Gaithersburg, MD, USA</t>
+          <t>Department of Medicine University of Arizona Tucson, Arizona.; Department of Medicine University of Arizona Tucson, Arizona.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220962349</t>
+          <t>https://openalex.org/W4225939484</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Efficacy of Tezepelumab in Patients with Severe, Uncontrolled Asthma with Respiratory Comorbidities: Results from the Phase 3 NAVIGATOR Study</t>
+          <t>Gaining Insights into Asthma-related COVID-19 Risk</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Journal of Allergy and Clinical Immunology</t>
+          <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>American Thoracic Society</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaci.2021.12.510</t>
+          <t>https://doi.org/10.1164/rccm.202111-2473ed</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/34813725</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaci.2021.12.510</t>
+          <t>https://doi.org/10.1164/rccm.202111-2473ed</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,57 +882,57 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mallory Wolfe Turner, Tara F. Carr, John L. Randall, Rohit Ramaswamy</t>
+          <t>Tara Carr, Jonathan A. Bernstein, Bill Cook, Gillian Hunter, Chris Ambrose, Jean-Pierre Llanos-Ackert, Andrew Lindsley, Gene Colice</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>University of North Carolina at Chapel Hill Gillings School of Global Public Health, Department of Maternal and Child Health, Chapel Hill, North Carolina 27599-7400, USA; University of North Carolina at Chapel Hill Gillings School of Global Public Health, Department of Nutrition, Chapel Hill, North Carolina, USA; University of North Carolina at Chapel Hill Gillings School of Global Public Health, Department of Health Policy and Management, Chapel Hill, North Carolina, USA; Cincinnati Children’s Hospital Medical Center, 3333 Burnet Avenue, Cincinnati, OH 45229, USA</t>
+          <t>Asthma and Airway Disease Research Center, University of Arizona, Tucson, AZ, USA; University of Cincinnati, Bernstein Clinical Research Center, Cincinnati, OH, USA; Respiratory and Immunology, BioPharmaceuticals Medical, AstraZeneca, Gaithersburg, MD, USA; Respiratory and Immunology, BioPharmaceuticals R&amp;D, AstraZeneca, Cambridge, UK; Respiratory and Immunology, BioPharmaceuticals Medical, AstraZeneca, Gaithersburg, MD, USA; Global Medical Affairs, Amgen, Thousand Oaks, CA, USA; US Medical Affairs, Amgen, Thousand Oaks, CA, USA; Respiratory &amp; Immunology, BioPharmaceuticals R&amp;D, AstraZeneca, Gaithersburg, MD, USA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4224279518</t>
+          <t>https://openalex.org/W4220962349</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A Scoping Review of the Use of Quality Improvement Methods by Community Organizations in the United States, Australia, New Zealand, and Canada to Improve Health and Well Being in Community Settings</t>
+          <t>Efficacy of Tezepelumab in Patients with Severe, Uncontrolled Asthma with Respiratory Comorbidities: Results from the Phase 3 NAVIGATOR Study</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-02-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>IJQHC communications</t>
+          <t>Journal of Allergy and Clinical Immunology</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ijcoms/lyab019</t>
+          <t>https://doi.org/10.1016/j.jaci.2021.12.510</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ijcoms/lyab019</t>
+          <t>https://doi.org/10.1016/j.jaci.2021.12.510</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jennifer Wells, Sujata Bhatt, Tara F. Carr, Gerard J. Criner, David Halpin, MeiLan K. Han, Rohit Jain, Mel Kaye, Marc Kraft, L. Saïl, D.A. Lipson, Douglas W. Mapel, M.J. Mammen, Carmen McEvoy, Dawn Midwinter, Dave Singh, Raúl Delgado Wise, Mark T. Dransfield</t>
+          <t>Jennifer Wells, Sujata Bhatt, Tara Carr, Gerard J. Criner, David Halpin, MeiLan K. Han, Rohit Jain, Mel Kaye, Marc Kraft, L. Saïl, D.A. Lipson, Douglas W. Mapel, M.J. Mammen, Carmen McEvoy, Dawn Midwinter, Dave Singh, Raúl Delgado Wise, Mark T. Dransfield</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hong Je Kang, Sheilah Allison, Amber Spangenberg, Tara F. Carr, Ryan Sprissler, Marilyn Halonen, Darren A. Cusanovich</t>
+          <t>Hong Je Kang, Sheilah Allison, Amber Spangenberg, Tara Carr, Ryan Sprissler, Marilyn Halonen, Darren A. Cusanovich</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1230,7 +1230,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M.D. Williams, C.S. Ambrose, Andrew Lindsley, M.M. Ross, H. Collacott, A. Schulz, Y. Chung, Pooja Desai, Pallavi Rane, H. Gelhorn, Tara F. Carr</t>
+          <t>M.D. Williams, C.S. Ambrose, Andrew Lindsley, M.M. Ross, H. Collacott, A. Schulz, Y. Chung, Pooja Desai, Pallavi Rane, H. Gelhorn, Tara Carr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tara F. Carr, Michael C. Peters</t>
+          <t>Tara Carr, Michael C. Peters</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jelena Eremija, Tara F. Carr</t>
+          <t>Jelena Eremija, Tara Carr</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Anne E. Dixon, Tara F. Carr, Loretta G. Que</t>
+          <t>Anne E. Dixon, Tara Carr, Loretta G. Que</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tara F. Carr</t>
+          <t>Tara Carr</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Springer Nature</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
